--- a/WorkShop_2.5_Kubernetes_RealWorld/LAB/Sheet.xlsx
+++ b/WorkShop_2.5_Kubernetes_RealWorld/LAB/Sheet.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="7520" yWindow="11780" windowWidth="28800" windowHeight="12860" tabRatio="500"/>
+    <workbookView xWindow="23000" yWindow="7780" windowWidth="28800" windowHeight="12860" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -27,12 +27,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="9">
   <si>
     <t>No</t>
-  </si>
-  <si>
-    <t>Public IP</t>
   </si>
   <si>
     <t>Group No</t>
@@ -50,34 +47,13 @@
     <t>Remark</t>
   </si>
   <si>
-    <t>Name</t>
+    <t>Server Real Name</t>
   </si>
   <si>
-    <t>Group1_Kubernetes_Master</t>
+    <t xml:space="preserve"> Public IP Address</t>
   </si>
   <si>
-    <t>Group1_Kubernetes_Worker1</t>
-  </si>
-  <si>
-    <t>Group1_Kubernetes_Worker2</t>
-  </si>
-  <si>
-    <t>Group2_Kubernetes_Master</t>
-  </si>
-  <si>
-    <t>Group2_Kubernetes_Worker1</t>
-  </si>
-  <si>
-    <t>Group2_Kubernetes_Worker2</t>
-  </si>
-  <si>
-    <t>Group3_Kubernetes_Master</t>
-  </si>
-  <si>
-    <t>Group3_Kubernetes_Worker1</t>
-  </si>
-  <si>
-    <t>Group3_Kubernetes_Worker2</t>
+    <t>Privage IP Address</t>
   </si>
 </sst>
 </file>
@@ -93,7 +69,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -103,6 +79,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.59999389629810485"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -134,14 +116,20 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -419,366 +407,1025 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F32"/>
+  <dimension ref="A1:G72"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+      <selection activeCell="B45" sqref="B45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="11.83203125" customWidth="1"/>
     <col min="2" max="2" width="3.5" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="30.1640625" customWidth="1"/>
-    <col min="4" max="4" width="28.6640625" customWidth="1"/>
-    <col min="5" max="5" width="11.1640625" customWidth="1"/>
-    <col min="6" max="6" width="28.6640625" customWidth="1"/>
+    <col min="3" max="4" width="30.1640625" customWidth="1"/>
+    <col min="5" max="5" width="31.6640625" customWidth="1"/>
+    <col min="6" max="6" width="14.33203125" customWidth="1"/>
+    <col min="7" max="7" width="28.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>0</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="D1" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A2" s="3">
+        <v>1</v>
+      </c>
+      <c r="B2" s="1">
+        <v>1</v>
+      </c>
+      <c r="C2" s="1"/>
+      <c r="D2" s="1"/>
+      <c r="E2" s="1"/>
+      <c r="F2" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="G2" s="1"/>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A3" s="3"/>
+      <c r="B3" s="1">
+        <v>2</v>
+      </c>
+      <c r="C3" s="1"/>
+      <c r="D3" s="1"/>
+      <c r="E3" s="1"/>
+      <c r="F3" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G3" s="1"/>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A4" s="3"/>
+      <c r="B4" s="1">
+        <v>3</v>
+      </c>
+      <c r="C4" s="1"/>
+      <c r="D4" s="1"/>
+      <c r="E4" s="1"/>
+      <c r="F4" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G4" s="1"/>
+    </row>
+    <row r="5" spans="1:7" s="6" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="4">
+        <v>2</v>
+      </c>
+      <c r="B5" s="5">
+        <v>1</v>
+      </c>
+      <c r="C5" s="5"/>
+      <c r="D5" s="5"/>
+      <c r="E5" s="5"/>
+      <c r="F5" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="G5" s="5"/>
+    </row>
+    <row r="6" spans="1:7" s="6" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="4"/>
+      <c r="B6" s="5">
+        <v>2</v>
+      </c>
+      <c r="C6" s="5"/>
+      <c r="D6" s="5"/>
+      <c r="E6" s="5"/>
+      <c r="F6" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="G6" s="5"/>
+    </row>
+    <row r="7" spans="1:7" s="6" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="4"/>
+      <c r="B7" s="5">
+        <v>3</v>
+      </c>
+      <c r="C7" s="5"/>
+      <c r="D7" s="5"/>
+      <c r="E7" s="5"/>
+      <c r="F7" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="G7" s="5"/>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A8" s="3">
+        <v>3</v>
+      </c>
+      <c r="B8" s="1">
+        <v>1</v>
+      </c>
+      <c r="C8" s="1"/>
+      <c r="D8" s="1"/>
+      <c r="E8" s="1"/>
+      <c r="F8" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="G8" s="1"/>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A9" s="3"/>
+      <c r="B9" s="1">
+        <v>2</v>
+      </c>
+      <c r="C9" s="1"/>
+      <c r="D9" s="1"/>
+      <c r="E9" s="1"/>
+      <c r="F9" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G9" s="1"/>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A10" s="3"/>
+      <c r="B10" s="1">
+        <v>3</v>
+      </c>
+      <c r="C10" s="1"/>
+      <c r="D10" s="1"/>
+      <c r="E10" s="1"/>
+      <c r="F10" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G10" s="1"/>
+    </row>
+    <row r="11" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A11" s="3">
+        <v>4</v>
+      </c>
+      <c r="B11" s="1">
+        <v>1</v>
+      </c>
+      <c r="C11" s="1"/>
+      <c r="D11" s="1"/>
+      <c r="E11" s="1"/>
+      <c r="F11" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="G11" s="1"/>
+    </row>
+    <row r="12" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A12" s="3"/>
+      <c r="B12" s="1">
+        <v>2</v>
+      </c>
+      <c r="C12" s="1"/>
+      <c r="D12" s="1"/>
+      <c r="E12" s="1"/>
+      <c r="F12" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G12" s="1"/>
+    </row>
+    <row r="13" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A13" s="3"/>
+      <c r="B13" s="1">
+        <v>3</v>
+      </c>
+      <c r="C13" s="1"/>
+      <c r="D13" s="1"/>
+      <c r="E13" s="1"/>
+      <c r="F13" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G13" s="1"/>
+    </row>
+    <row r="14" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A14" s="3">
+        <v>5</v>
+      </c>
+      <c r="B14" s="1">
+        <v>1</v>
+      </c>
+      <c r="C14" s="1"/>
+      <c r="D14" s="1"/>
+      <c r="E14" s="1"/>
+      <c r="F14" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="G14" s="1"/>
+    </row>
+    <row r="15" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A15" s="3"/>
+      <c r="B15" s="1">
+        <v>2</v>
+      </c>
+      <c r="C15" s="1"/>
+      <c r="D15" s="1"/>
+      <c r="E15" s="1"/>
+      <c r="F15" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G15" s="1"/>
+    </row>
+    <row r="16" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A16" s="3"/>
+      <c r="B16" s="1">
+        <v>3</v>
+      </c>
+      <c r="C16" s="1"/>
+      <c r="D16" s="1"/>
+      <c r="E16" s="1"/>
+      <c r="F16" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G16" s="1"/>
+    </row>
+    <row r="17" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A17" s="3">
+        <v>6</v>
+      </c>
+      <c r="B17" s="1">
+        <v>1</v>
+      </c>
+      <c r="C17" s="1"/>
+      <c r="D17" s="1"/>
+      <c r="E17" s="1"/>
+      <c r="F17" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="G17" s="1"/>
+    </row>
+    <row r="18" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A18" s="3"/>
+      <c r="B18" s="1">
+        <v>2</v>
+      </c>
+      <c r="C18" s="1"/>
+      <c r="D18" s="1"/>
+      <c r="E18" s="1"/>
+      <c r="F18" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G18" s="1"/>
+    </row>
+    <row r="19" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A19" s="3"/>
+      <c r="B19" s="1">
+        <v>3</v>
+      </c>
+      <c r="C19" s="1"/>
+      <c r="D19" s="1"/>
+      <c r="E19" s="1"/>
+      <c r="F19" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G19" s="1"/>
+    </row>
+    <row r="20" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A20" s="3">
         <v>7</v>
       </c>
-      <c r="E1" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="F1" s="2" t="s">
+      <c r="B20" s="1">
+        <v>1</v>
+      </c>
+      <c r="C20" s="1"/>
+      <c r="D20" s="1"/>
+      <c r="E20" s="1"/>
+      <c r="F20" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="G20" s="1"/>
+    </row>
+    <row r="21" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A21" s="3"/>
+      <c r="B21" s="1">
+        <v>2</v>
+      </c>
+      <c r="C21" s="1"/>
+      <c r="D21" s="1"/>
+      <c r="E21" s="1"/>
+      <c r="F21" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G21" s="1"/>
+    </row>
+    <row r="22" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A22" s="3"/>
+      <c r="B22" s="1">
+        <v>3</v>
+      </c>
+      <c r="C22" s="1"/>
+      <c r="D22" s="1"/>
+      <c r="E22" s="1"/>
+      <c r="F22" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G22" s="1"/>
+    </row>
+    <row r="23" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A23" s="3">
+        <v>8</v>
+      </c>
+      <c r="B23" s="1">
+        <v>1</v>
+      </c>
+      <c r="C23" s="1"/>
+      <c r="D23" s="1"/>
+      <c r="E23" s="1"/>
+      <c r="F23" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="G23" s="1"/>
+    </row>
+    <row r="24" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A24" s="3"/>
+      <c r="B24" s="1">
+        <v>2</v>
+      </c>
+      <c r="C24" s="1"/>
+      <c r="D24" s="1"/>
+      <c r="E24" s="1"/>
+      <c r="F24" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G24" s="1"/>
+    </row>
+    <row r="25" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A25" s="3"/>
+      <c r="B25" s="1">
+        <v>3</v>
+      </c>
+      <c r="C25" s="1"/>
+      <c r="D25" s="1"/>
+      <c r="E25" s="1"/>
+      <c r="F25" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G25" s="1"/>
+    </row>
+    <row r="26" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A26" s="3">
+        <v>9</v>
+      </c>
+      <c r="B26" s="1">
+        <v>1</v>
+      </c>
+      <c r="C26" s="1"/>
+      <c r="D26" s="1"/>
+      <c r="E26" s="1"/>
+      <c r="F26" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="G26" s="1"/>
+    </row>
+    <row r="27" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A27" s="3"/>
+      <c r="B27" s="1">
+        <v>2</v>
+      </c>
+      <c r="C27" s="1"/>
+      <c r="D27" s="1"/>
+      <c r="E27" s="1"/>
+      <c r="F27" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G27" s="1"/>
+    </row>
+    <row r="28" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A28" s="3"/>
+      <c r="B28" s="1">
+        <v>3</v>
+      </c>
+      <c r="C28" s="1"/>
+      <c r="D28" s="1"/>
+      <c r="E28" s="1"/>
+      <c r="F28" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G28" s="1"/>
+    </row>
+    <row r="29" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A29" s="3">
+        <v>10</v>
+      </c>
+      <c r="B29" s="1">
+        <v>1</v>
+      </c>
+      <c r="C29" s="1"/>
+      <c r="D29" s="1"/>
+      <c r="E29" s="1"/>
+      <c r="F29" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="G29" s="1"/>
+    </row>
+    <row r="30" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A30" s="3"/>
+      <c r="B30" s="1">
+        <v>2</v>
+      </c>
+      <c r="C30" s="1"/>
+      <c r="D30" s="1"/>
+      <c r="E30" s="1"/>
+      <c r="F30" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G30" s="1"/>
+    </row>
+    <row r="31" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A31" s="3"/>
+      <c r="B31" s="1">
+        <v>3</v>
+      </c>
+      <c r="C31" s="1"/>
+      <c r="D31" s="1"/>
+      <c r="E31" s="1"/>
+      <c r="F31" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G31" s="1"/>
+    </row>
+    <row r="32" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A32" s="1"/>
+      <c r="B32" s="1"/>
+      <c r="C32" s="1"/>
+      <c r="D32" s="1"/>
+      <c r="E32" s="1"/>
+      <c r="F32" s="1"/>
+      <c r="G32" s="1"/>
+    </row>
+    <row r="33" spans="1:7" s="6" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A33" s="4">
+        <v>4</v>
+      </c>
+      <c r="B33" s="5">
+        <v>1</v>
+      </c>
+      <c r="C33" s="5"/>
+      <c r="D33" s="5"/>
+      <c r="E33" s="5"/>
+      <c r="F33" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="G33" s="5"/>
+    </row>
+    <row r="34" spans="1:7" s="6" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A34" s="4"/>
+      <c r="B34" s="5">
+        <v>2</v>
+      </c>
+      <c r="C34" s="5"/>
+      <c r="D34" s="5"/>
+      <c r="E34" s="5"/>
+      <c r="F34" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="G34" s="5"/>
+    </row>
+    <row r="35" spans="1:7" s="6" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A35" s="4"/>
+      <c r="B35" s="5">
+        <v>3</v>
+      </c>
+      <c r="C35" s="5"/>
+      <c r="D35" s="5"/>
+      <c r="E35" s="5"/>
+      <c r="F35" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="G35" s="5"/>
+    </row>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A36" s="3">
+        <v>5</v>
+      </c>
+      <c r="B36" s="1">
+        <v>1</v>
+      </c>
+      <c r="C36" s="1"/>
+      <c r="D36" s="1"/>
+      <c r="E36" s="1"/>
+      <c r="F36" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="G36" s="1"/>
+    </row>
+    <row r="37" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A37" s="3"/>
+      <c r="B37" s="1">
+        <v>2</v>
+      </c>
+      <c r="C37" s="1"/>
+      <c r="D37" s="1"/>
+      <c r="E37" s="1"/>
+      <c r="F37" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G37" s="1"/>
+    </row>
+    <row r="38" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A38" s="3"/>
+      <c r="B38" s="1">
+        <v>3</v>
+      </c>
+      <c r="C38" s="1"/>
+      <c r="D38" s="1"/>
+      <c r="E38" s="1"/>
+      <c r="F38" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G38" s="1"/>
+    </row>
+    <row r="39" spans="1:7" s="6" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A39" s="4">
         <v>6</v>
       </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A2" s="1">
-        <v>1</v>
-      </c>
-      <c r="B2">
-        <v>1</v>
-      </c>
-      <c r="D2" t="s">
+      <c r="B39" s="5">
+        <v>1</v>
+      </c>
+      <c r="C39" s="5"/>
+      <c r="D39" s="5"/>
+      <c r="E39" s="5"/>
+      <c r="F39" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="G39" s="5"/>
+    </row>
+    <row r="40" spans="1:7" s="6" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A40" s="4"/>
+      <c r="B40" s="5">
+        <v>2</v>
+      </c>
+      <c r="C40" s="5"/>
+      <c r="D40" s="5"/>
+      <c r="E40" s="5"/>
+      <c r="F40" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="G40" s="5"/>
+    </row>
+    <row r="41" spans="1:7" s="6" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A41" s="4"/>
+      <c r="B41" s="5">
+        <v>3</v>
+      </c>
+      <c r="C41" s="5"/>
+      <c r="D41" s="5"/>
+      <c r="E41" s="5"/>
+      <c r="F41" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="G41" s="5"/>
+    </row>
+    <row r="42" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A42" s="3">
+        <v>7</v>
+      </c>
+      <c r="B42" s="1">
+        <v>1</v>
+      </c>
+      <c r="C42" s="1"/>
+      <c r="D42" s="1"/>
+      <c r="E42" s="1"/>
+      <c r="F42" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="G42" s="1"/>
+    </row>
+    <row r="43" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A43" s="3"/>
+      <c r="B43" s="1">
+        <v>2</v>
+      </c>
+      <c r="C43" s="1"/>
+      <c r="D43" s="1"/>
+      <c r="E43" s="1"/>
+      <c r="F43" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G43" s="1"/>
+    </row>
+    <row r="44" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A44" s="3"/>
+      <c r="B44" s="1">
+        <v>3</v>
+      </c>
+      <c r="C44" s="1"/>
+      <c r="D44" s="1"/>
+      <c r="E44" s="1"/>
+      <c r="F44" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G44" s="1"/>
+    </row>
+    <row r="45" spans="1:7" s="6" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A45" s="4">
         <v>8</v>
       </c>
-      <c r="E2" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A3" s="1"/>
-      <c r="B3">
-        <v>2</v>
-      </c>
-      <c r="D3" t="s">
+      <c r="B45" s="5">
+        <v>1</v>
+      </c>
+      <c r="C45" s="5"/>
+      <c r="D45" s="5"/>
+      <c r="E45" s="5"/>
+      <c r="F45" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="G45" s="5"/>
+    </row>
+    <row r="46" spans="1:7" s="6" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A46" s="4"/>
+      <c r="B46" s="5">
+        <v>2</v>
+      </c>
+      <c r="C46" s="5"/>
+      <c r="D46" s="5"/>
+      <c r="E46" s="5"/>
+      <c r="F46" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="G46" s="5"/>
+    </row>
+    <row r="47" spans="1:7" s="6" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A47" s="4"/>
+      <c r="B47" s="5">
+        <v>3</v>
+      </c>
+      <c r="C47" s="5"/>
+      <c r="D47" s="5"/>
+      <c r="E47" s="5"/>
+      <c r="F47" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="G47" s="5"/>
+    </row>
+    <row r="48" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A48" s="3">
+        <v>4</v>
+      </c>
+      <c r="B48" s="1">
+        <v>1</v>
+      </c>
+      <c r="C48" s="1"/>
+      <c r="D48" s="1"/>
+      <c r="E48" s="1"/>
+      <c r="F48" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="G48" s="1"/>
+    </row>
+    <row r="49" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A49" s="3"/>
+      <c r="B49" s="1">
+        <v>2</v>
+      </c>
+      <c r="C49" s="1"/>
+      <c r="D49" s="1"/>
+      <c r="E49" s="1"/>
+      <c r="F49" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G49" s="1"/>
+    </row>
+    <row r="50" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A50" s="3"/>
+      <c r="B50" s="1">
+        <v>3</v>
+      </c>
+      <c r="C50" s="1"/>
+      <c r="D50" s="1"/>
+      <c r="E50" s="1"/>
+      <c r="F50" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G50" s="1"/>
+    </row>
+    <row r="51" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A51" s="3">
+        <v>5</v>
+      </c>
+      <c r="B51" s="1">
+        <v>1</v>
+      </c>
+      <c r="C51" s="1"/>
+      <c r="D51" s="1"/>
+      <c r="E51" s="1"/>
+      <c r="F51" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="G51" s="1"/>
+    </row>
+    <row r="52" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A52" s="3"/>
+      <c r="B52" s="1">
+        <v>2</v>
+      </c>
+      <c r="C52" s="1"/>
+      <c r="D52" s="1"/>
+      <c r="E52" s="1"/>
+      <c r="F52" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G52" s="1"/>
+    </row>
+    <row r="53" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A53" s="3"/>
+      <c r="B53" s="1">
+        <v>3</v>
+      </c>
+      <c r="C53" s="1"/>
+      <c r="D53" s="1"/>
+      <c r="E53" s="1"/>
+      <c r="F53" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G53" s="1"/>
+    </row>
+    <row r="54" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A54" s="3">
+        <v>6</v>
+      </c>
+      <c r="B54" s="1">
+        <v>1</v>
+      </c>
+      <c r="C54" s="1"/>
+      <c r="D54" s="1"/>
+      <c r="E54" s="1"/>
+      <c r="F54" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="G54" s="1"/>
+    </row>
+    <row r="55" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A55" s="3"/>
+      <c r="B55" s="1">
+        <v>2</v>
+      </c>
+      <c r="C55" s="1"/>
+      <c r="D55" s="1"/>
+      <c r="E55" s="1"/>
+      <c r="F55" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G55" s="1"/>
+    </row>
+    <row r="56" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A56" s="3"/>
+      <c r="B56" s="1">
+        <v>3</v>
+      </c>
+      <c r="C56" s="1"/>
+      <c r="D56" s="1"/>
+      <c r="E56" s="1"/>
+      <c r="F56" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G56" s="1"/>
+    </row>
+    <row r="57" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A57" s="3">
+        <v>7</v>
+      </c>
+      <c r="B57" s="1">
+        <v>1</v>
+      </c>
+      <c r="C57" s="1"/>
+      <c r="D57" s="1"/>
+      <c r="E57" s="1"/>
+      <c r="F57" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="G57" s="1"/>
+    </row>
+    <row r="58" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A58" s="3"/>
+      <c r="B58" s="1">
+        <v>2</v>
+      </c>
+      <c r="C58" s="1"/>
+      <c r="D58" s="1"/>
+      <c r="E58" s="1"/>
+      <c r="F58" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G58" s="1"/>
+    </row>
+    <row r="59" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A59" s="3"/>
+      <c r="B59" s="1">
+        <v>3</v>
+      </c>
+      <c r="C59" s="1"/>
+      <c r="D59" s="1"/>
+      <c r="E59" s="1"/>
+      <c r="F59" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G59" s="1"/>
+    </row>
+    <row r="60" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A60" s="3">
+        <v>8</v>
+      </c>
+      <c r="B60" s="1">
+        <v>1</v>
+      </c>
+      <c r="C60" s="1"/>
+      <c r="D60" s="1"/>
+      <c r="E60" s="1"/>
+      <c r="F60" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="G60" s="1"/>
+    </row>
+    <row r="61" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A61" s="3"/>
+      <c r="B61" s="1">
+        <v>2</v>
+      </c>
+      <c r="C61" s="1"/>
+      <c r="D61" s="1"/>
+      <c r="E61" s="1"/>
+      <c r="F61" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G61" s="1"/>
+    </row>
+    <row r="62" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A62" s="3"/>
+      <c r="B62" s="1">
+        <v>3</v>
+      </c>
+      <c r="C62" s="1"/>
+      <c r="D62" s="1"/>
+      <c r="E62" s="1"/>
+      <c r="F62" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G62" s="1"/>
+    </row>
+    <row r="63" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A63" s="3">
         <v>9</v>
       </c>
-      <c r="E3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A4" s="1"/>
-      <c r="B4">
-        <v>3</v>
-      </c>
-      <c r="D4" t="s">
+      <c r="B63" s="1">
+        <v>1</v>
+      </c>
+      <c r="C63" s="1"/>
+      <c r="D63" s="1"/>
+      <c r="E63" s="1"/>
+      <c r="F63" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="G63" s="1"/>
+    </row>
+    <row r="64" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A64" s="3"/>
+      <c r="B64" s="1">
+        <v>2</v>
+      </c>
+      <c r="C64" s="1"/>
+      <c r="D64" s="1"/>
+      <c r="E64" s="1"/>
+      <c r="F64" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G64" s="1"/>
+    </row>
+    <row r="65" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A65" s="3"/>
+      <c r="B65" s="1">
+        <v>3</v>
+      </c>
+      <c r="C65" s="1"/>
+      <c r="D65" s="1"/>
+      <c r="E65" s="1"/>
+      <c r="F65" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G65" s="1"/>
+    </row>
+    <row r="66" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A66" s="3">
         <v>10</v>
       </c>
-      <c r="E4" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A5" s="1">
-        <v>2</v>
-      </c>
-      <c r="B5">
-        <v>1</v>
-      </c>
-      <c r="D5" t="s">
-        <v>11</v>
-      </c>
-      <c r="E5" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A6" s="1"/>
-      <c r="B6">
-        <v>2</v>
-      </c>
-      <c r="D6" t="s">
-        <v>12</v>
-      </c>
-      <c r="E6" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A7" s="1"/>
-      <c r="B7">
-        <v>3</v>
-      </c>
-      <c r="D7" t="s">
-        <v>13</v>
-      </c>
-      <c r="E7" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A8" s="1">
-        <v>3</v>
-      </c>
-      <c r="B8">
-        <v>1</v>
-      </c>
-      <c r="D8" t="s">
-        <v>14</v>
-      </c>
-      <c r="E8" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A9" s="1"/>
-      <c r="B9">
-        <v>2</v>
-      </c>
-      <c r="D9" t="s">
-        <v>15</v>
-      </c>
-      <c r="E9" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A10" s="1"/>
-      <c r="B10">
-        <v>3</v>
-      </c>
-      <c r="D10" t="s">
-        <v>16</v>
-      </c>
-      <c r="E10" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="1">
-        <v>4</v>
-      </c>
-      <c r="B11">
-        <v>1</v>
-      </c>
-      <c r="E11" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="1"/>
-      <c r="B12">
-        <v>2</v>
-      </c>
-      <c r="E12" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="1"/>
-      <c r="B13">
-        <v>3</v>
-      </c>
-      <c r="E13" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="1">
-        <v>5</v>
-      </c>
-      <c r="B14">
-        <v>1</v>
-      </c>
-      <c r="E14" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="1"/>
-      <c r="B15">
-        <v>2</v>
-      </c>
-      <c r="E15" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="1"/>
-      <c r="B16">
-        <v>3</v>
-      </c>
-      <c r="E16" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="1">
-        <v>6</v>
-      </c>
-      <c r="B17">
-        <v>1</v>
-      </c>
-      <c r="E17" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="1"/>
-      <c r="B18">
-        <v>2</v>
-      </c>
-      <c r="E18" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="1"/>
-      <c r="B19">
-        <v>3</v>
-      </c>
-      <c r="E19" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="1">
-        <v>7</v>
-      </c>
-      <c r="B20">
-        <v>1</v>
-      </c>
-      <c r="E20" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="1"/>
-      <c r="B21">
-        <v>2</v>
-      </c>
-      <c r="E21" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="1"/>
-      <c r="B22">
-        <v>3</v>
-      </c>
-      <c r="E22" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="1">
-        <v>8</v>
-      </c>
-      <c r="B23">
-        <v>1</v>
-      </c>
-      <c r="E23" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A24" s="1"/>
-      <c r="B24">
-        <v>2</v>
-      </c>
-      <c r="E24" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A25" s="1"/>
-      <c r="B25">
-        <v>3</v>
-      </c>
-      <c r="E25" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="1">
+      <c r="B66" s="1">
+        <v>1</v>
+      </c>
+      <c r="C66" s="1"/>
+      <c r="D66" s="1"/>
+      <c r="E66" s="1"/>
+      <c r="F66" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="G66" s="1"/>
+    </row>
+    <row r="67" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A67" s="3"/>
+      <c r="B67" s="1">
+        <v>2</v>
+      </c>
+      <c r="C67" s="1"/>
+      <c r="D67" s="1"/>
+      <c r="E67" s="1"/>
+      <c r="F67" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G67" s="1"/>
+    </row>
+    <row r="68" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A68" s="3"/>
+      <c r="B68" s="1">
+        <v>3</v>
+      </c>
+      <c r="C68" s="1"/>
+      <c r="D68" s="1"/>
+      <c r="E68" s="1"/>
+      <c r="F68" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G68" s="1"/>
+    </row>
+    <row r="69" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A69" s="1"/>
+      <c r="B69" s="1"/>
+      <c r="C69" s="1"/>
+      <c r="D69" s="1"/>
+      <c r="E69" s="1"/>
+      <c r="F69" s="1"/>
+      <c r="G69" s="1"/>
+    </row>
+    <row r="70" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A70" s="3">
         <v>9</v>
       </c>
-      <c r="B26">
-        <v>1</v>
-      </c>
-      <c r="E26" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="1"/>
-      <c r="B27">
-        <v>2</v>
-      </c>
-      <c r="E27" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="28" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A28" s="1"/>
-      <c r="B28">
-        <v>3</v>
-      </c>
-      <c r="E28" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="29" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A29" s="1">
-        <v>10</v>
-      </c>
-      <c r="B29">
-        <v>1</v>
-      </c>
-      <c r="E29" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="30" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A30" s="1"/>
-      <c r="B30">
-        <v>2</v>
-      </c>
-      <c r="E30" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="31" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A31" s="1"/>
-      <c r="B31">
-        <v>3</v>
-      </c>
-      <c r="E31" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="32" spans="1:5" hidden="1" x14ac:dyDescent="0.2"/>
+      <c r="B70" s="1">
+        <v>1</v>
+      </c>
+      <c r="C70" s="1"/>
+      <c r="D70" s="1"/>
+      <c r="E70" s="1"/>
+      <c r="F70" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="G70" s="1"/>
+    </row>
+    <row r="71" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A71" s="3"/>
+      <c r="B71" s="1">
+        <v>2</v>
+      </c>
+      <c r="C71" s="1"/>
+      <c r="D71" s="1"/>
+      <c r="E71" s="1"/>
+      <c r="F71" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G71" s="1"/>
+    </row>
+    <row r="72" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A72" s="3"/>
+      <c r="B72" s="1">
+        <v>3</v>
+      </c>
+      <c r="C72" s="1"/>
+      <c r="D72" s="1"/>
+      <c r="E72" s="1"/>
+      <c r="F72" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G72" s="1"/>
+    </row>
   </sheetData>
-  <mergeCells count="10">
+  <mergeCells count="23">
+    <mergeCell ref="A57:A59"/>
+    <mergeCell ref="A60:A62"/>
+    <mergeCell ref="A63:A65"/>
+    <mergeCell ref="A66:A68"/>
+    <mergeCell ref="A70:A72"/>
+    <mergeCell ref="A39:A41"/>
+    <mergeCell ref="A42:A44"/>
+    <mergeCell ref="A45:A47"/>
+    <mergeCell ref="A48:A50"/>
+    <mergeCell ref="A51:A53"/>
+    <mergeCell ref="A54:A56"/>
     <mergeCell ref="A20:A22"/>
     <mergeCell ref="A23:A25"/>
     <mergeCell ref="A26:A28"/>
     <mergeCell ref="A29:A31"/>
+    <mergeCell ref="A33:A35"/>
+    <mergeCell ref="A36:A38"/>
     <mergeCell ref="A2:A4"/>
     <mergeCell ref="A5:A7"/>
     <mergeCell ref="A8:A10"/>
